--- a/visualisation/excel/Sentiment_variability_plot.xlsx
+++ b/visualisation/excel/Sentiment_variability_plot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kent\University Of Kent UK\Projects\Disso\Screening-LLM\visualisation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9710F-824A-441F-B623-0A9521F5740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00922844-5362-41FD-9502-AD8FCABFE99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17360" yWindow="0" windowWidth="8330" windowHeight="13770" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OrgSentRecFail" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="33">
   <si>
     <t>Questions</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>anxiety</t>
-  </si>
-  <si>
-    <t>satisfacttion</t>
   </si>
   <si>
     <t>threat</t>
@@ -460,7 +457,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1202,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E64F37-3545-4E5E-93C3-3FE8514C7E2E}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1345,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>0.22600000000000001</v>
@@ -1506,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3207E38-B4E0-4AF7-A33D-CAB579A58034}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1705,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>0.1</v>
@@ -1761,7 +1758,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>0.29199999999999998</v>
